--- a/2023/02-23-sny son  HESAP.xlsx
+++ b/2023/02-23-sny son  HESAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\past\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF560236-3AD8-4D80-8743-1EFE2B163A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7480C62-0951-47B1-BAF2-6208C8C610F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="12825" windowHeight="14835" tabRatio="912" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="330" windowWidth="14040" windowHeight="14610" tabRatio="912" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="SnH_yazıhane" sheetId="8" r:id="rId9"/>
     <sheet name="Sayfa2" sheetId="16" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F9" s="4">
         <f>'SnyB202-22'!D6</f>
-        <v>-1000.1199999999998</v>
+        <v>-987.27999999999986</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
-        <v>-9434.86</v>
+        <v>-9422.02</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -2592,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="E4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -4601,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D6" s="20">
         <f>F37</f>
-        <v>-1000.1199999999998</v>
+        <v>-987.27999999999986</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="21"/>
@@ -5092,14 +5092,14 @@
         <v>30</v>
       </c>
       <c r="D35" s="34">
-        <v>798.2</v>
+        <v>1551.23</v>
       </c>
       <c r="E35" s="35">
         <v>917.93</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="1"/>
-        <v>-858.79999999999984</v>
+        <v>-105.76999999999987</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -5112,14 +5112,14 @@
         <v>30</v>
       </c>
       <c r="D36" s="37">
-        <v>1158.4000000000001</v>
+        <v>418.21</v>
       </c>
       <c r="E36" s="38">
         <v>1299.72</v>
       </c>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
-        <v>-1000.1199999999998</v>
+        <v>-987.27999999999986</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -5138,7 +5138,7 @@
       <c r="E37" s="44"/>
       <c r="F37" s="45">
         <f>D37-E37+F36</f>
-        <v>-1000.1199999999998</v>
+        <v>-987.27999999999986</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5511,7 +5511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -6685,8 +6685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7680,8 +7680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="C22" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8342,9 +8342,15 @@
       <c r="B36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="C36" s="23">
+        <v>30</v>
+      </c>
+      <c r="D36" s="37">
+        <v>1048.55</v>
+      </c>
+      <c r="E36" s="38">
+        <v>1174.3800000000001</v>
+      </c>
       <c r="F36" s="39">
         <f t="shared" si="2"/>
         <v>-2510.63</v>
@@ -9510,8 +9516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="B15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10052,9 +10058,15 @@
       <c r="B36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
+      <c r="C36" s="23">
+        <v>40</v>
+      </c>
+      <c r="D36" s="37">
+        <v>447.82</v>
+      </c>
+      <c r="E36" s="38">
+        <v>447.82</v>
+      </c>
       <c r="F36" s="39">
         <f t="shared" si="1"/>
         <v>-1200</v>
